--- a/1.Documents/计划表.xlsx
+++ b/1.Documents/计划表.xlsx
@@ -16,24 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>任务名称</t>
   </si>
   <si>
-    <t>任务人</t>
+    <t>工期</t>
   </si>
   <si>
     <t>开始时间</t>
   </si>
   <si>
-    <t>周期</t>
-  </si>
-  <si>
     <t>结束时间</t>
   </si>
   <si>
-    <t>项目需求</t>
+    <t>资源名称</t>
   </si>
   <si>
     <t>需求分析</t>
@@ -81,7 +78,7 @@
     <t>Web设计</t>
   </si>
   <si>
-    <t>程序编码</t>
+    <t>编码实现</t>
   </si>
   <si>
     <t>页面实现</t>
@@ -111,13 +108,13 @@
     <t>清洁人员</t>
   </si>
   <si>
-    <t>软件测试</t>
+    <t>测试</t>
   </si>
   <si>
     <t>单元测试</t>
   </si>
   <si>
-    <t>组装测试</t>
+    <t>集成测试</t>
   </si>
   <si>
     <t>系统测试</t>
@@ -128,12 +125,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,131 +154,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -300,6 +174,136 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -310,19 +314,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,163 +488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,16 +509,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,43 +552,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,6 +563,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +625,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -761,10 +765,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -826,6 +830,1126 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.105683095199872"/>
+          <c:y val="0.0342950589884359"/>
+          <c:w val="0.847158452400064"/>
+          <c:h val="0.917813339563135"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>开始时间</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>需求分析</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>测试用例</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>类图、时序图</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>数据库创建</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Web原型图</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>系统框架设计</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>数据库设计</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>接口文档</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Web设计</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>页面实现</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>数据库连接</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>注册</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>登录</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>个人信息维护</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>菜单</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>订餐/取消订餐</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>订餐统计</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>菜单</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>清洁人员</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>单元测试</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>集成测试</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>系统测试</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>43125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43133</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43133</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43133</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43133</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43137</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43137</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43137</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43138</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43138</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43138</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43140</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43140</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>工期</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>需求分析</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>测试用例</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>类图、时序图</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>数据库创建</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Web原型图</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>系统框架设计</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>数据库设计</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>接口文档</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Web设计</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>页面实现</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>数据库连接</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>注册</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>登录</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>个人信息维护</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>菜单</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>订餐/取消订餐</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>订餐统计</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>菜单</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>清洁人员</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>单元测试</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>集成测试</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>系统测试</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="100614872"/>
+        <c:axId val="749214564"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="100614872"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="749214564"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="749214564"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="43125"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="100614872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1001395</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>240030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>386715</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>153035</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5300345" y="240030"/>
+        <a:ext cx="7896860" cy="5234305"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1115,438 +2239,443 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6851851851852" customWidth="1"/>
     <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="16.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="13.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="10.7777777777778"/>
+    <col min="5" max="5" width="10.7777777777778"/>
+    <col min="6" max="6" width="16.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="2:6">
-      <c r="B2" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="25" customHeight="1" spans="2:6">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="17.4" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43125</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43129</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
         <v>7</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4" s="3">
         <v>43125</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="3">
         <v>43129</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
         <v>43125</v>
       </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="3">
         <v>43129</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
         <v>43125</v>
       </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="3">
         <v>43129</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
         <v>43125</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
+        <v>43129</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="17.4" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="F7" s="4">
-        <v>43129</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4">
-        <v>43125</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4">
-        <v>43129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
+      <c r="D9" s="3">
+        <v>43130</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
         <v>43130</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="3">
         <v>43132</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
         <v>43130</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E11" s="3">
         <v>43132</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
         <v>43130</v>
       </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="E12" s="3">
         <v>43132</v>
       </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" t="s">
+    <row r="13" ht="17.4" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4">
-        <v>43130</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4">
-        <v>43132</v>
-      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
         <v>21</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3">
+        <v>43133</v>
+      </c>
+      <c r="E14" s="3">
+        <v>43139</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>43133</v>
+      </c>
+      <c r="E15" s="3">
+        <v>43134</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
         <v>43133</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="E16" s="3">
         <v>43134</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
         <v>43133</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="E17" s="3">
         <v>43134</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="4">
-        <v>43133</v>
-      </c>
-      <c r="E18">
+        <v>25</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="F18" s="4">
-        <v>43134</v>
+      <c r="D18" s="3">
+        <v>43137</v>
+      </c>
+      <c r="E18" s="3">
+        <v>43138</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="4">
-        <v>43133</v>
-      </c>
-      <c r="E19">
+        <v>26</v>
+      </c>
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="F19" s="4">
-        <v>43134</v>
+      <c r="D19" s="3">
+        <v>43137</v>
+      </c>
+      <c r="E19" s="3">
+        <v>43138</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="4">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
         <v>43137</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="E20" s="3">
         <v>43138</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="4">
-        <v>43137</v>
-      </c>
-      <c r="E21">
+        <v>28</v>
+      </c>
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="F21" s="4">
+      <c r="D21" s="3">
         <v>43138</v>
+      </c>
+      <c r="E21" s="3">
+        <v>43139</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="4">
-        <v>43137</v>
-      </c>
-      <c r="E22">
+        <v>26</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="F22" s="4">
+      <c r="D22" s="3">
         <v>43138</v>
+      </c>
+      <c r="E22" s="3">
+        <v>43139</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
         <v>43138</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="E23" s="3">
         <v>43139</v>
       </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="4">
-        <v>43138</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>43139</v>
-      </c>
+    <row r="24" ht="20.4" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="4">
-        <v>43138</v>
-      </c>
-      <c r="E25">
+        <v>31</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="F25" s="4">
-        <v>43139</v>
+      <c r="D25" s="3">
+        <v>43140</v>
+      </c>
+      <c r="E25" s="3">
+        <v>43140</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>43140</v>
+      </c>
+      <c r="E26" s="3">
+        <v>43140</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="4">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
         <v>43140</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="E27" s="3">
         <v>43140</v>
       </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="4">
-        <v>43140</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4">
-        <v>43140</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="4">
-        <v>43140</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4">
-        <v>43140</v>
+      <c r="F27" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/1.Documents/计划表.xlsx
+++ b/1.Documents/计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17388" windowHeight="10524"/>
+    <workbookView windowWidth="17388" windowHeight="10115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>魏玉凤</t>
   </si>
   <si>
-    <t>数据库创建</t>
+    <t>物理模型设计</t>
   </si>
   <si>
     <t>李中喜</t>
@@ -125,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -162,14 +162,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,21 +185,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,48 +199,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,32 +228,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,6 +259,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -314,72 +314,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -392,109 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,21 +508,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -530,6 +515,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,25 +562,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,17 +597,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,145 +613,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -846,7 +846,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -903,7 +903,7 @@
                   <c:v>类图、时序图</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>数据库创建</c:v>
+                  <c:v>物理模型设计</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Web原型图</c:v>
@@ -1080,7 +1080,7 @@
                   <c:v>类图、时序图</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>数据库创建</c:v>
+                  <c:v>物理模型设计</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Web原型图</c:v>
@@ -1922,15 +1922,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1001395</xdr:colOff>
+      <xdr:colOff>901065</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>240030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>386715</xdr:colOff>
+      <xdr:colOff>384175</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>153035</xdr:rowOff>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1938,8 +1938,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5300345" y="240030"/>
-        <a:ext cx="7896860" cy="5234305"/>
+        <a:off x="5200015" y="240030"/>
+        <a:ext cx="7994650" cy="5231765"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2242,7 +2242,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2634,10 +2634,10 @@
         <v>43140</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:5">
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -2650,11 +2650,8 @@
       <c r="E26" s="3">
         <v>43140</v>
       </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:5">
       <c r="B27" t="s">
         <v>33</v>
       </c>
@@ -2667,11 +2664,11 @@
       <c r="E27" s="3">
         <v>43140</v>
       </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F25:F27"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
